--- a/downloads/Brood_Dictionary.xlsx
+++ b/downloads/Brood_Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hannah_vincelette_fws_gov/Documents/Documents/Data_management/landbirds_project_maintenance/Reformatted_data/_Dictionaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hannah_vincelette_fws_gov/Documents/Documents/GitHub/landbird-dp-workflow/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_3EFAF9C750B0C3F8C45DEE9CF7A8661F5E0D31B9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE1B4520-1FFA-4876-B0DE-222D35A2297D}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_3EFAF9C750B0C3F8C45DEE9CF7A8661F5E0D31B9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1123A3F-F61B-4624-90C4-1D11225A3F63}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10440" yWindow="3090" windowWidth="15765" windowHeight="10275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="136">
   <si>
     <t>codeName</t>
   </si>
@@ -768,27 +768,27 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="I1" activeCellId="1" sqref="F1:F1048576 I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1015625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1015625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7890625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1015625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1015625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.68359375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.3125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -832,7 +832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -848,14 +848,14 @@
       <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
+      <c r="F2" t="b">
+        <v>0</v>
       </c>
       <c r="J2">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -871,11 +871,11 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -891,11 +891,11 @@
       <c r="E4" t="s">
         <v>46</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -911,8 +911,8 @@
       <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
-        <v>17</v>
+      <c r="F5" t="b">
+        <v>1</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -921,7 +921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -937,11 +937,11 @@
       <c r="E6" t="s">
         <v>42</v>
       </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -957,8 +957,8 @@
       <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
-        <v>17</v>
+      <c r="F7" t="b">
+        <v>1</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -967,7 +967,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -983,11 +983,11 @@
       <c r="E8" t="s">
         <v>43</v>
       </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -1003,11 +1003,11 @@
       <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1023,11 +1023,11 @@
       <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -1057,11 +1057,11 @@
       <c r="E12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -1091,11 +1091,11 @@
       <c r="E14" t="s">
         <v>15</v>
       </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -1111,11 +1111,11 @@
       <c r="E15" t="s">
         <v>15</v>
       </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -1131,14 +1131,14 @@
       <c r="E16" t="s">
         <v>38</v>
       </c>
-      <c r="F16" t="s">
-        <v>17</v>
+      <c r="F16" t="b">
+        <v>1</v>
       </c>
       <c r="G16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -1154,14 +1154,14 @@
       <c r="E17" t="s">
         <v>38</v>
       </c>
-      <c r="F17" t="s">
-        <v>17</v>
+      <c r="F17" t="b">
+        <v>1</v>
       </c>
       <c r="G17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -1177,11 +1177,11 @@
       <c r="E18" t="s">
         <v>30</v>
       </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>87</v>
       </c>
@@ -1197,11 +1197,11 @@
       <c r="E19" t="s">
         <v>15</v>
       </c>
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>87</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>87</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>99</v>
       </c>
@@ -1287,11 +1287,11 @@
       <c r="E25" t="s">
         <v>30</v>
       </c>
-      <c r="F25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -1307,14 +1307,14 @@
       <c r="E26" t="s">
         <v>38</v>
       </c>
-      <c r="F26" t="s">
-        <v>17</v>
+      <c r="F26" t="b">
+        <v>1</v>
       </c>
       <c r="G26" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -1330,14 +1330,14 @@
       <c r="E27" t="s">
         <v>38</v>
       </c>
-      <c r="F27" t="s">
-        <v>17</v>
+      <c r="F27" t="b">
+        <v>1</v>
       </c>
       <c r="G27" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -1353,11 +1353,11 @@
       <c r="E28" t="s">
         <v>42</v>
       </c>
-      <c r="F28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -1373,11 +1373,11 @@
       <c r="E29" t="s">
         <v>15</v>
       </c>
-      <c r="F29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>110</v>
       </c>
@@ -1393,11 +1393,11 @@
       <c r="E30" t="s">
         <v>15</v>
       </c>
-      <c r="F30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>112</v>
       </c>
@@ -1413,11 +1413,11 @@
       <c r="E31" t="s">
         <v>15</v>
       </c>
-      <c r="F31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>112</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>112</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>112</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>112</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>120</v>
       </c>
@@ -1489,11 +1489,11 @@
       <c r="E36" t="s">
         <v>15</v>
       </c>
-      <c r="F36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>122</v>
       </c>
@@ -1509,11 +1509,11 @@
       <c r="E37" t="s">
         <v>15</v>
       </c>
-      <c r="F37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>122</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>122</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>122</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>122</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>124</v>
       </c>
@@ -1585,8 +1585,8 @@
       <c r="E42" t="s">
         <v>15</v>
       </c>
-      <c r="F42" t="s">
-        <v>17</v>
+      <c r="F42" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1636,9 +1636,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1654,202 +1654,202 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -1860,12 +1860,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2084,15 +2081,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A509B9-B602-44D7-8524-A5F07D653562}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE1B8B3B-DB51-4B89-BDAE-E8E785CC9109}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
+    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2117,18 +2126,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE1B8B3B-DB51-4B89-BDAE-E8E785CC9109}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A509B9-B602-44D7-8524-A5F07D653562}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
-    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>